--- a/public/files/excel/date_production.xlsx
+++ b/public/files/excel/date_production.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>رقم التوظيف</t>
   </si>
@@ -23,10 +23,22 @@
     <t>عدد الأمتار</t>
   </si>
   <si>
+    <t>المجموعة</t>
+  </si>
+  <si>
+    <t>الوردية</t>
+  </si>
+  <si>
     <t>تاريخ الإنتاج</t>
   </si>
   <si>
-    <t>2021-02-27</t>
+    <t>الثالثة</t>
+  </si>
+  <si>
+    <t>صباحية</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
   </si>
 </sst>
 </file>
@@ -365,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,7 +385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,49 +395,28 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>109</v>
-      </c>
-      <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>661</v>
-      </c>
-      <c r="B4">
-        <v>500</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>661</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/excel/date_production.xlsx
+++ b/public/files/excel/date_production.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>رقم التوظيف</t>
   </si>
   <si>
-    <t>عدد الأمتار</t>
+    <t>اسم الموظف</t>
   </si>
   <si>
     <t>المجموعة</t>
@@ -29,16 +29,52 @@
     <t>الوردية</t>
   </si>
   <si>
+    <t>الانتاج الأول</t>
+  </si>
+  <si>
+    <t>الانتاج الثاني</t>
+  </si>
+  <si>
+    <t>الانتاج الثالث</t>
+  </si>
+  <si>
+    <t>الانتاج الرابع</t>
+  </si>
+  <si>
+    <t>الانتاج الخامس</t>
+  </si>
+  <si>
+    <t>الانتاج السادس</t>
+  </si>
+  <si>
+    <t>الانتاج السابع</t>
+  </si>
+  <si>
+    <t>الانتاج الثامن</t>
+  </si>
+  <si>
+    <t>الانتاج التاسع</t>
+  </si>
+  <si>
+    <t>الانتاج العاشر</t>
+  </si>
+  <si>
+    <t>الانتاج اليومي</t>
+  </si>
+  <si>
     <t>تاريخ الإنتاج</t>
   </si>
   <si>
-    <t>الثالثة</t>
+    <t>عبد المنعم محمد القضيب</t>
+  </si>
+  <si>
+    <t>الأولى</t>
   </si>
   <si>
     <t>صباحية</t>
   </si>
   <si>
-    <t>2021-03-01</t>
+    <t>2021-03-18</t>
   </si>
 </sst>
 </file>
@@ -377,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,22 +437,76 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>185</v>
       </c>
-      <c r="B2">
-        <v>5000</v>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>600</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
